--- a/data/trans_bre/P19C01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.17575540645513</v>
+        <v>-5.191071439685063</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.942485965148745</v>
+        <v>1.831166108998941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.130216580235902</v>
+        <v>0.5343137921953068</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5210043994378109</v>
+        <v>0.8861665009023442</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1988875712905687</v>
+        <v>-0.1977353324384322</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09461205980492315</v>
+        <v>0.09438676097336363</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04321698311529304</v>
+        <v>0.01819790492093601</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.01010113810477207</v>
+        <v>0.02057878557875879</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.652268192339938</v>
+        <v>3.238827454851697</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.620239611398091</v>
+        <v>9.380751909403958</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.36673016209641</v>
+        <v>11.71362522643741</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.42932628329512</v>
+        <v>10.60183621925675</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.177589054189367</v>
+        <v>0.1550421078499062</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6319040075072434</v>
+        <v>0.6124265297133858</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5022116713531576</v>
+        <v>0.488812229763374</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3144102259086343</v>
+        <v>0.3115401255776985</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.286706361068482</v>
+        <v>1.738172932071698</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.96696017285026</v>
+        <v>2.206943155211287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7208410400171028</v>
+        <v>-0.6110643141345615</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.316035819406974</v>
+        <v>1.00668259833</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07290275765366742</v>
+        <v>0.05110093310657107</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05969620858638872</v>
+        <v>0.0695002381463984</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01593428703618805</v>
+        <v>-0.01304683594756576</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02151876647072885</v>
+        <v>0.01646275174631578</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.622433954782954</v>
+        <v>8.930471547213182</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.631665852719046</v>
+        <v>8.667971049411083</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.232582943700466</v>
+        <v>6.255042536805108</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.501912278542605</v>
+        <v>7.350262879236563</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.348973116561649</v>
+        <v>0.3219315965231163</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2923669117999428</v>
+        <v>0.2899620971424453</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1568472342433662</v>
+        <v>0.1585756346122812</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1314811715770291</v>
+        <v>0.1316009413926224</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.390992788428069</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.538227100482337</v>
+        <v>-1.538227100482348</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.03158170792074049</v>
@@ -849,7 +849,7 @@
         <v>0.02751123065706295</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.02239144342224255</v>
+        <v>-0.02239144342224271</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.546405940815596</v>
+        <v>-7.86379588330958</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.008618948378729</v>
+        <v>4.223498916314652</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.681656656262978</v>
+        <v>-5.101895795626106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.517922093131627</v>
+        <v>-6.124241666967405</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1900880346037818</v>
+        <v>-0.1845115705307353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08537005427830534</v>
+        <v>0.08960243928247112</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.09094650806552644</v>
+        <v>-0.09626625100801116</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.09122594716242118</v>
+        <v>-0.08691308793165017</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.680999887602044</v>
+        <v>6.313852896322785</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.12893726678475</v>
+        <v>18.6921583714229</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.332420438300176</v>
+        <v>7.975622402179708</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.268619053058852</v>
+        <v>3.779082809832965</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1307162750113632</v>
+        <v>0.167062072259249</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4583271309969167</v>
+        <v>0.474011630522865</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1786434426722274</v>
+        <v>0.1710506480511584</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04909492876817076</v>
+        <v>0.05663055537283786</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.650618539481791</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.06910834004731</v>
+        <v>2.069108340047299</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05279459572874643</v>
@@ -949,7 +949,7 @@
         <v>0.06498249367542581</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.03625030327707005</v>
+        <v>0.03625030327706985</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.9208946504929075</v>
+        <v>-1.272458776027707</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.543246076172216</v>
+        <v>2.24553232604734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.2708942159479771</v>
+        <v>-0.07308577609787009</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.1578297044447685</v>
+        <v>-0.3412061041886528</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03018791758244679</v>
+        <v>-0.04030176384191315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08344504807913365</v>
+        <v>0.07240450967852363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.006812913067840173</v>
+        <v>-0.001811811615502701</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.002677559803686091</v>
+        <v>-0.005570688659974067</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.058320002838343</v>
+        <v>4.059239711779629</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.331521813938989</v>
+        <v>7.333896621085405</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.320514916840184</v>
+        <v>5.233953024934537</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.610473958396987</v>
+        <v>4.396389703867092</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1413124428586719</v>
+        <v>0.1430958008480857</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2588240240448503</v>
+        <v>0.262758048081663</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1341235982935691</v>
+        <v>0.1310899942910743</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08390778997907282</v>
+        <v>0.07954118022603185</v>
       </c>
     </row>
     <row r="16">
